--- a/biology/Botanique/Amphilophium/Amphilophium.xlsx
+++ b/biology/Botanique/Amphilophium/Amphilophium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphilophium est un genre d'arbres de la famille des Bignoniaceae .
 L'espèce type est Bignonia paniculata L..
@@ -512,9 +524,11 @@
           <t>Liste des espèces, sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (20 mai 2022)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (20 mai 2022) :
 Amphilophium apiculata A.H. Gentry
 Amphilophium arenarium (A.H. Gentry) L.G. Lohmann, 2008
 Amphilophium aschersonii Ule, 1904
@@ -556,20 +570,20 @@
 Amphilophium laeve (Sandwith) L.G. Lohmann, 2008
 Amphilophium laxiflorum (DC.) L.G. Lohmann, 2014
 Amphilophium lohmanniae (A. Pool) L.G. Lohmann, 2014
-Amphilophium macrophyllum Kunth, 1818 [1819]
+Amphilophium macrophyllum Kunth, 1818 
 Amphilophium magnoliifolium (Kunth) L.G. Lohmann, 2008
 Amphilophium mansoanum (DC.) L.G. Lohmann, 2014
 Amphilophium mansoanum (DC.) L.G. Lohmann, 2010
 Amphilophium molle Schltdl. &amp; Cham., 1830
 Amphilophium mollicomum Pittier, 1928
 Amphilophium monophyllum (Sandwith) L.G. Lohmann, 2014
-Amphilophium mutisii Kunth, 1818 [1819]
+Amphilophium mutisii Kunth, 1818 
 Amphilophium neoglaziovii L.G. Lohmann ex K. Schum., 2010
 Amphilophium nunezii (A.H. Gentry) L.G. Lohmann, 2014
 Amphilophium obovatum (Sandwith) L.G. Lohmann, 2008
 Amphilophium occidentale (A.H. Gentry) L.G. Lohmann, 2014
 Amphilophium oxylophium Donn. Sm., 1901
-Amphilophium paniculatum (L.) Kunth, 1818 [1819]
+Amphilophium paniculatum (L.) Kunth, 1818 
 Amphilophium pannosum (DC.) Bureau &amp; K. Schum., 1896
 Amphilophium paraguariense Hassl. ex A.G. Schulz, 1939
 Amphilophium parkeri (DC.) L.G. Lohmann, 2008
@@ -593,7 +607,7 @@
 Amphilophium steyermarkii (A.H. Gentry) L.G., 2008
 Amphilophium vauthieri A. DC., 1845
 Amphilophium xerophilum Pittier, 1928
-Selon Tropicos                                           (20 mai 2022)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (20 mai 2022) (Attention liste brute contenant possiblement des synonymes) :
 Amphilophium apiculata A.H. Gentry
 Amphilophium arenarium (A.H. Gentry) L.G. Lohmann, 2008
 Amphilophium aschersonii Ule, 1904
@@ -635,20 +649,20 @@
 Amphilophium laeve (Sandwith) L.G. Lohmann, 2008
 Amphilophium laxiflorum (DC.) L.G. Lohmann, 2014
 Amphilophium lohmanniae (A. Pool) L.G. Lohmann, 2014
-Amphilophium macrophyllum Kunth, 1818 [1819]
+Amphilophium macrophyllum Kunth, 1818 
 Amphilophium magnoliifolium (Kunth) L.G. Lohmann, 2008
 Amphilophium mansoanum (DC.) L.G. Lohmann, 2014
 Amphilophium mansoanum (DC.) L.G. Lohmann, 2010
 Amphilophium molle Schltdl. &amp; Cham., 1830
 Amphilophium mollicomum Pittier, 1928
 Amphilophium monophyllum (Sandwith) L.G. Lohmann, 2014
-Amphilophium mutisii Kunth, 1818 [1819]
+Amphilophium mutisii Kunth, 1818 
 Amphilophium neoglaziovii L.G. Lohmann ex K. Schum., 2010
 Amphilophium nunezii (A.H. Gentry) L.G. Lohmann, 2014
 Amphilophium obovatum (Sandwith) L.G. Lohmann, 2008
 Amphilophium occidentale (A.H. Gentry) L.G. Lohmann, 2014
 Amphilophium oxylophium Donn. Sm., 1901
-Amphilophium paniculatum (L.) Kunth, 1818 [1819]
+Amphilophium paniculatum (L.) Kunth, 1818 
 Amphilophium pannosum (DC.) Bureau &amp; K. Schum., 1896
 Amphilophium paraguariense Hassl. ex A.G. Schulz, 1939
 Amphilophium parkeri (DC.) L.G. Lohmann, 2008
